--- a/tools/STM32WIFI模块TCP通信协议.xlsx
+++ b/tools/STM32WIFI模块TCP通信协议.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ten\Desktop\Java\Air\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Air\Air-Server\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88A4054-4848-4586-B98C-8E0634163216}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B659D7FD-90FC-4A07-B136-AC36988C8ED5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>0x01心跳包指令</t>
   </si>
@@ -44,10 +44,6 @@
 0xA00F</t>
   </si>
   <si>
-    <t>1个字节
-0x27=2+1+6+1+15+1+(1+10)+2=39</t>
-  </si>
-  <si>
     <t xml:space="preserve">6个字节
 时间戳:年+月+日+小时+分钟+秒 </t>
   </si>
@@ -56,14 +52,7 @@
 </t>
   </si>
   <si>
-    <t>2个字节
-3～37字节的求和(除去帧头码和校验码)</t>
-  </si>
-  <si>
     <t>0xA00F</t>
-  </si>
-  <si>
-    <t>0x27</t>
   </si>
   <si>
     <t>18年8月15日17：30：20
@@ -78,10 +67,6 @@
 0x38 0x36 0x31……0x39 0x35</t>
   </si>
   <si>
-    <t>0x00：正常
-0x01：损坏</t>
-  </si>
-  <si>
     <t>请求：设备 -&gt;服务器</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -91,28 +76,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>大气数据1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>x个字节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大气数据2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单片机的状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>单片机地址码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>15个字节
 单片机GSM模块的imei号(字符串)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00：正常设备
+0x01：虚拟设备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气数据1 温度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气数据2 PM2.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个字节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个字节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.2℃  0x19 0x02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>250 0xfa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个字节
+3～29字节的求和(除去帧头码和校验码)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1f</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个字节
+0x1f=31</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,9 +400,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -408,6 +421,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -417,16 +442,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -707,7 +726,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -718,28 +737,27 @@
     <col min="4" max="4" width="18.6328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="1"/>
+    <col min="7" max="8" width="22.6328125" style="1" customWidth="1"/>
     <col min="9" max="9" width="38" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -748,7 +766,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="16"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -763,19 +781,19 @@
       <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="E3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -783,64 +801,68 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>10</v>
+      <c r="G4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="18"/>
+      <c r="F5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tools/STM32WIFI模块TCP通信协议.xlsx
+++ b/tools/STM32WIFI模块TCP通信协议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Air\Air-Server\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B659D7FD-90FC-4A07-B136-AC36988C8ED5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492376A2-49C8-440F-BB9F-860AD8000F24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,6 +433,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -441,12 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -743,17 +743,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -822,7 +822,7 @@
       <c r="H4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="23" t="s">
         <v>25</v>
       </c>
     </row>
@@ -842,13 +842,13 @@
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="17"/>

--- a/tools/STM32WIFI模块TCP通信协议.xlsx
+++ b/tools/STM32WIFI模块TCP通信协议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Air\Air-Server\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492376A2-49C8-440F-BB9F-860AD8000F24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300C066F-0F6C-4391-BB25-D363D3349B89}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>0x01心跳包指令</t>
   </si>
@@ -52,9 +52,6 @@
 </t>
   </si>
   <si>
-    <t>0xA00F</t>
-  </si>
-  <si>
     <t>18年8月15日17：30：20
 0x12，0X08,0X0F,0X11,0X1E,0X14</t>
   </si>
@@ -102,10 +99,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1个字节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2个字节</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -114,21 +107,37 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>250 0xfa</t>
+    <t>0xA00F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>250 0x00 0xfa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00 0x00 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气数据3 未使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气数据4 未使用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2个字节
-3～29字节的求和(除去帧头码和校验码)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1f</t>
+3～34字节的求和(除去帧头码和校验码)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x24</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1个字节
-0x1f=31</t>
+0x24=36</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -723,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -737,12 +746,12 @@
     <col min="4" max="4" width="18.6328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.1796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="22.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="38" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.81640625" style="1"/>
+    <col min="7" max="10" width="22.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -753,11 +762,13 @@
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -766,9 +777,11 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="15"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -782,78 +795,96 @@
         <v>4</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="B5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="H5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -863,10 +894,12 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/STM32WIFI模块TCP通信协议.xlsx
+++ b/tools/STM32WIFI模块TCP通信协议.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Air\Air-Server\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300C066F-0F6C-4391-BB25-D363D3349B89}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8AD7D5-34DB-4D87-BFCB-BFCC02F75D23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
